--- a/tables/permanova_results.xlsx
+++ b/tables/permanova_results.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-38280" yWindow="-5600" windowWidth="29160" windowHeight="16940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
     <sheet name="Ver_Lake" sheetId="2" r:id="rId2"/>
-    <sheet name="BCC_Lake" sheetId="3" r:id="rId3"/>
+    <sheet name="Non-Ver_Lake" sheetId="3" r:id="rId3"/>
     <sheet name="Final Table" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="63">
   <si>
     <t>Depth</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Verrucos</t>
   </si>
   <si>
-    <t>Whole Bacterial Community</t>
-  </si>
-  <si>
     <t>Laur vs. Est</t>
   </si>
   <si>
@@ -135,73 +132,85 @@
     <t>0.286 (0.001***)</t>
   </si>
   <si>
-    <t>0.288 (0.001***)</t>
-  </si>
-  <si>
     <t>0.173 (0.001***)</t>
   </si>
   <si>
-    <t>0.344 (0.001***)</t>
-  </si>
-  <si>
     <t>0.127 (0.001***)</t>
   </si>
   <si>
-    <t>0.125 (0.001***)</t>
-  </si>
-  <si>
     <t>0.112 (0.001***)</t>
   </si>
   <si>
-    <t>0.172 (0.001***)</t>
-  </si>
-  <si>
     <t>0.433 (0.001***)</t>
   </si>
   <si>
-    <t>0.242 (0.001***)</t>
-  </si>
-  <si>
     <t>0.218 (0.001***)</t>
   </si>
   <si>
     <t>0.077 (0.001***)</t>
   </si>
   <si>
-    <t>0.097 (0.001***)</t>
-  </si>
-  <si>
     <t>0.035 (0.013*)</t>
   </si>
   <si>
-    <t>0.045 (0.007**)</t>
-  </si>
-  <si>
     <t>0.069 (0.001***)</t>
   </si>
   <si>
     <t>0.045 (0.003**)</t>
   </si>
   <si>
-    <t>0.034 (0.01**)</t>
-  </si>
-  <si>
     <t>0.013 (0.036*)</t>
   </si>
   <si>
-    <t>0.168 (0.011*)</t>
-  </si>
-  <si>
     <t>Residuals</t>
   </si>
   <si>
     <t>0.271 (0.001***)</t>
   </si>
   <si>
-    <t>0.210 (0.001***)</t>
-  </si>
-  <si>
-    <t>0.095 (0.001***)</t>
+    <t>Non-Verruco Community</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>0.180 (0.001***)</t>
+  </si>
+  <si>
+    <t>0.100 (0.001***)</t>
+  </si>
+  <si>
+    <t>0.202 (0.001***)</t>
+  </si>
+  <si>
+    <t>0.098 (0.001***)</t>
+  </si>
+  <si>
+    <t>0.333 (0.001***)</t>
+  </si>
+  <si>
+    <t>0.116 (0.001***)</t>
+  </si>
+  <si>
+    <t>0.175 (0.001***)</t>
+  </si>
+  <si>
+    <t>0.056 (0.001***)</t>
+  </si>
+  <si>
+    <t>0.018 (0.018*)</t>
+  </si>
+  <si>
+    <t>0.350 (0.001***)</t>
+  </si>
+  <si>
+    <t>0.234 (0.001***)</t>
+  </si>
+  <si>
+    <t>0.033 (0.022*)</t>
+  </si>
+  <si>
+    <t>0.044 (0.012*)</t>
   </si>
 </sst>
 </file>
@@ -211,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,6 +278,29 @@
       <sz val="15"/>
       <color rgb="FF231F20"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -574,7 +606,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -608,6 +640,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1143,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1164,17 +1210,23 @@
     <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25">
+    <row r="1" spans="1:15" ht="25">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="I1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -1185,20 +1237,23 @@
       <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="29" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1217,60 +1272,62 @@
       <c r="F3" s="5">
         <v>1E-3</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="5">
-        <v>9.9019999999999997E-2</v>
-      </c>
-      <c r="L3" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="M3" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="N3" s="5">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="J3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="L3" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="M3" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N3" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5">
-        <v>0.10932</v>
+        <v>0.10811</v>
       </c>
       <c r="D4" s="5">
-        <v>8.7970000000000007E-2</v>
+        <v>0.11169999999999999</v>
       </c>
       <c r="E4" s="5">
-        <v>0.16120999999999999</v>
+        <v>0.1663</v>
       </c>
       <c r="F4" s="5">
-        <v>9.5200000000000007E-2</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="4" t="s">
+        <v>8.8440000000000005E-2</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="L4" s="5">
-        <v>9.5310000000000006E-2</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0.21101</v>
-      </c>
-      <c r="N4" s="5">
-        <v>8.3199999999999996E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="K4" s="31">
+        <v>0.10027999999999999</v>
+      </c>
+      <c r="L4" s="31">
+        <v>0.12722</v>
+      </c>
+      <c r="M4" s="31">
+        <v>0.21922</v>
+      </c>
+      <c r="N4" s="31">
+        <v>8.1809999999999994E-2</v>
+      </c>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5">
-        <v>0.77</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="D5" s="5">
         <v>1E-3</v>
@@ -1287,97 +1344,103 @@
         <v>1E-3</v>
       </c>
       <c r="F5" s="5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I5" s="1" t="s">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="M5" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="N5" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="J5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L5" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="M5" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N5" s="31">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5">
-        <v>0.27767330000000001</v>
+        <v>0.23447019999999999</v>
       </c>
       <c r="D6" s="5">
-        <v>28.00798</v>
+        <v>26.734629999999999</v>
       </c>
       <c r="E6" s="5">
-        <v>29.837019999999999</v>
+        <v>28.29785</v>
       </c>
       <c r="F6" s="5">
-        <v>4.9992859999999997</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4" t="s">
+        <v>4.4242929999999996</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="5">
-        <v>5.2923049999999998</v>
-      </c>
-      <c r="L6" s="5">
-        <v>18.023800000000001</v>
-      </c>
-      <c r="M6" s="5">
-        <v>60.670250000000003</v>
-      </c>
-      <c r="N6" s="5">
-        <v>4.2601319999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="K6" s="31">
+        <v>5.2828989999999996</v>
+      </c>
+      <c r="L6" s="31">
+        <v>14.24141</v>
+      </c>
+      <c r="M6" s="31">
+        <v>59.276290000000003</v>
+      </c>
+      <c r="N6" s="31">
+        <v>3.7999070000000001</v>
+      </c>
+      <c r="O6" s="28"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="28"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="15"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8" s="34"/>
+      <c r="O8" s="28"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -1393,53 +1456,55 @@
       <c r="E9" s="5">
         <v>1E-3</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="M9" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="J9" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="L9" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="M9" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N9" s="34"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="5">
-        <v>9.6939999999999998E-2</v>
+        <v>0.11055</v>
       </c>
       <c r="D10" s="5">
         <v>7.3200000000000001E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>6.3869999999999996E-2</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8" t="s">
+        <v>6.4380000000000007E-2</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="5">
-        <v>9.5939999999999998E-2</v>
-      </c>
-      <c r="L10" s="5">
-        <v>8.1500000000000003E-2</v>
-      </c>
-      <c r="M10" s="5">
-        <v>7.1859999999999993E-2</v>
-      </c>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="K10" s="31">
+        <v>0.10735</v>
+      </c>
+      <c r="L10" s="31">
+        <v>8.0149999999999999E-2</v>
+      </c>
+      <c r="M10" s="31">
+        <v>6.8459999999999993E-2</v>
+      </c>
+      <c r="N10" s="34"/>
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="9" t="s">
         <v>6</v>
       </c>
@@ -1447,81 +1512,96 @@
         <v>3</v>
       </c>
       <c r="C11" s="5">
-        <v>9.1999999999999998E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D11" s="5">
         <v>1E-3</v>
       </c>
       <c r="E11" s="5">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="I11" s="9" t="s">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="I11" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="5">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="N11" s="15"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="J11" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="31">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="L11" s="31">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="M11" s="31">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="N11" s="34"/>
+      <c r="O11" s="28"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="10"/>
       <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5">
-        <v>3.0615809999999999</v>
+        <v>3.0333540000000001</v>
       </c>
       <c r="D12" s="5">
         <v>13.455</v>
       </c>
       <c r="E12" s="5">
-        <v>1.2801020000000001</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="8" t="s">
+        <v>0.88459429999999994</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="5">
-        <v>3.0615809999999999</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="K12" s="31">
+        <v>2.7922950000000002</v>
+      </c>
+      <c r="L12" s="31">
         <v>0.44703690000000001</v>
       </c>
-      <c r="M12" s="5">
-        <v>9.8472749999999998E-2</v>
-      </c>
-      <c r="N12" s="15"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M12" s="31">
+        <v>5.2720259999999998E-2</v>
+      </c>
+      <c r="N12" s="34"/>
+      <c r="O12" s="28"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1537,51 +1617,55 @@
       <c r="E15" s="5">
         <v>1E-3</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="M15" s="5">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="J15" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="L15" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="M15" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="2"/>
       <c r="B16" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="5">
-        <v>1.4109999999999999E-2</v>
+        <v>3.619E-2</v>
       </c>
       <c r="D16" s="5">
-        <v>0.13396</v>
+        <v>0.12477000000000001</v>
       </c>
       <c r="E16" s="5">
-        <v>0.13453000000000001</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="12" t="s">
+        <v>0.16958999999999999</v>
+      </c>
+      <c r="I16" s="32"/>
+      <c r="J16" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="5">
-        <v>2.0709999999999999E-2</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0.14538000000000001</v>
-      </c>
-      <c r="M16" s="5">
-        <v>0.12809000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="K16" s="31">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="L16" s="31">
+        <v>0.13377</v>
+      </c>
+      <c r="M16" s="31">
+        <v>0.16272</v>
+      </c>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1589,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="5">
-        <v>0.498</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="D17" s="5">
         <v>1E-3</v>
@@ -1597,71 +1681,88 @@
       <c r="E17" s="5">
         <v>1E-3</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L17" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="M17" s="5">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="J17" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="31">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L17" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="M17" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="5">
-        <v>0.51449869999999998</v>
+        <v>1.0132490000000001</v>
       </c>
       <c r="D18" s="5">
-        <v>58.667679999999997</v>
+        <v>53.560099999999998</v>
       </c>
       <c r="E18" s="5">
-        <v>47.736229999999999</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="12" t="s">
+        <v>44.435989999999997</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="J18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="5">
-        <v>9.7932839999999999</v>
-      </c>
-      <c r="L18" s="5">
-        <v>19.84845</v>
-      </c>
-      <c r="M18" s="5">
-        <v>31.089960000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="K18" s="31">
+        <v>8.1488829999999997</v>
+      </c>
+      <c r="L18" s="31">
+        <v>16.09327</v>
+      </c>
+      <c r="M18" s="31">
+        <v>25.425070000000002</v>
+      </c>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="4" t="s">
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
@@ -1677,51 +1778,55 @@
       <c r="E21" s="5">
         <v>1E-3</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="L21" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="M21" s="5">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="J21" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="L21" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="M21" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="5">
-        <v>9.4740000000000005E-2</v>
+        <v>9.6610000000000001E-2</v>
       </c>
       <c r="D22" s="5">
-        <v>0.12536</v>
+        <v>0.13127</v>
       </c>
       <c r="E22" s="5">
-        <v>0.17968999999999999</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8" t="s">
+        <v>0.18770000000000001</v>
+      </c>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="5">
-        <v>0.14928</v>
-      </c>
-      <c r="L22" s="5">
-        <v>0.12068</v>
-      </c>
-      <c r="M22" s="5">
-        <v>0.22202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="K22" s="31">
+        <v>0.15531</v>
+      </c>
+      <c r="L22" s="31">
+        <v>0.12517</v>
+      </c>
+      <c r="M22" s="31">
+        <v>0.23463000000000001</v>
+      </c>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="9" t="s">
         <v>6</v>
       </c>
@@ -1737,71 +1842,88 @@
       <c r="E23" s="5">
         <v>1E-3</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="L23" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="M23" s="5">
-        <v>0.106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="J23" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="L23" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="M23" s="31">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="10"/>
       <c r="B24" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="5">
-        <v>23.66752</v>
+        <v>22.352509999999999</v>
       </c>
       <c r="D24" s="5">
-        <v>58.6663</v>
+        <v>57.868830000000003</v>
       </c>
       <c r="E24" s="5">
-        <v>19.229659999999999</v>
-      </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="8" t="s">
+        <v>17.737380000000002</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="J24" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="5">
-        <v>105.94110000000001</v>
-      </c>
-      <c r="L24" s="5">
-        <v>45.63044</v>
-      </c>
-      <c r="M24" s="5">
-        <v>2.6685989999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="K24" s="31">
+        <v>105.8503</v>
+      </c>
+      <c r="L24" s="31">
+        <v>41.640259999999998</v>
+      </c>
+      <c r="M24" s="31">
+        <v>1.5587839999999999</v>
+      </c>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="C26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="4" t="s">
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="M26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
@@ -1817,51 +1939,55 @@
       <c r="E27" s="5">
         <v>1E-3</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="L27" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="M27" s="5">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="J27" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="L27" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="M27" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="5">
-        <v>9.0520000000000003E-2</v>
+        <v>8.5349999999999995E-2</v>
       </c>
       <c r="D28" s="5">
-        <v>0.13916000000000001</v>
+        <v>0.12483</v>
       </c>
       <c r="E28" s="5">
-        <v>2.691E-2</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8" t="s">
+        <v>2.4649999999999998E-2</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K28" s="5">
-        <v>7.9920000000000005E-2</v>
-      </c>
-      <c r="L28" s="5">
-        <v>0.10023</v>
-      </c>
-      <c r="M28" s="5">
-        <v>2.862E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="K28" s="31">
+        <v>7.9570000000000002E-2</v>
+      </c>
+      <c r="L28" s="31">
+        <v>9.4289999999999999E-2</v>
+      </c>
+      <c r="M28" s="31">
+        <v>2.7789999999999999E-2</v>
+      </c>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="9" t="s">
         <v>6</v>
       </c>
@@ -1877,56 +2003,69 @@
       <c r="E29" s="5">
         <v>1E-3</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="L29" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="M29" s="5">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="J29" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="L29" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="M29" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="10"/>
       <c r="B30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="5">
-        <v>18.144189999999998</v>
+        <v>17.16133</v>
       </c>
       <c r="D30" s="5">
-        <v>22.438849999999999</v>
+        <v>20.02684</v>
       </c>
       <c r="E30" s="5">
-        <v>20.667739999999998</v>
-      </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="8" t="s">
+        <v>19.891490000000001</v>
+      </c>
+      <c r="I30" s="33"/>
+      <c r="J30" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="5">
-        <v>50.162439999999997</v>
-      </c>
-      <c r="L30" s="5">
-        <v>30.20449</v>
-      </c>
-      <c r="M30" s="5">
-        <v>32.704439999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="K30" s="31">
+        <v>49.523850000000003</v>
+      </c>
+      <c r="L30" s="31">
+        <v>25.933920000000001</v>
+      </c>
+      <c r="M30" s="31">
+        <v>31.501830000000002</v>
+      </c>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>0</v>
@@ -1937,23 +2076,25 @@
       <c r="E32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="4" t="s">
+      <c r="I32" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="29" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
@@ -1969,53 +2110,93 @@
       <c r="E33" s="5">
         <v>1E-3</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="K33" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="L33" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="M33" s="5">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="I33" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="K33" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="L33" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="M33" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="5">
-        <v>0.10932</v>
+        <v>0.10811</v>
       </c>
       <c r="C34" s="14">
-        <v>9.0079999999999993E-2</v>
+        <v>0.10904999999999999</v>
       </c>
       <c r="D34" s="14">
-        <v>8.5519999999999999E-2</v>
+        <v>8.6699999999999999E-2</v>
       </c>
       <c r="E34" s="14">
-        <v>7.9119999999999996E-2</v>
-      </c>
-      <c r="I34" s="4" t="s">
+        <v>7.0129999999999998E-2</v>
+      </c>
+      <c r="I34" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J34" s="5">
-        <v>9.9019999999999997E-2</v>
-      </c>
-      <c r="K34" s="14">
-        <v>9.3869999999999995E-2</v>
-      </c>
-      <c r="L34" s="14">
-        <v>0.13366</v>
-      </c>
-      <c r="M34" s="14">
-        <v>6.7049999999999998E-2</v>
-      </c>
+      <c r="J34" s="31">
+        <v>0.10027999999999999</v>
+      </c>
+      <c r="K34" s="39">
+        <v>0.12046</v>
+      </c>
+      <c r="L34" s="39">
+        <v>0.13816000000000001</v>
+      </c>
+      <c r="M34" s="39">
+        <v>6.1629999999999997E-2</v>
+      </c>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2045,16 +2226,16 @@
   <sheetData>
     <row r="1" spans="1:20" ht="25">
       <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2068,13 +2249,13 @@
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>1</v>
@@ -2083,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>0</v>
@@ -2309,24 +2490,24 @@
     </row>
     <row r="8" spans="1:20">
       <c r="J8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="F9" s="16"/>
       <c r="H9" s="1" t="s">
@@ -2345,13 +2526,13 @@
         <v>1E-3</v>
       </c>
       <c r="R9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -2521,18 +2702,18 @@
     </row>
     <row r="14" spans="1:20">
       <c r="J14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>1</v>
@@ -2541,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>0</v>
@@ -2562,7 +2743,7 @@
         <v>1E-3</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="11" t="s">
         <v>0</v>
@@ -2682,13 +2863,13 @@
       <c r="B20" s="16"/>
       <c r="E20" s="15"/>
       <c r="J20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2771,10 +2952,10 @@
       <c r="B26" s="20"/>
       <c r="E26" s="20"/>
       <c r="H26" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>1</v>
@@ -2783,7 +2964,7 @@
         <v>2</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>0</v>
@@ -2862,7 +3043,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="T17" sqref="T15:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2874,16 +3055,16 @@
   <sheetData>
     <row r="1" spans="1:20" ht="25">
       <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2897,13 +3078,13 @@
         <v>2</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>1</v>
@@ -2912,7 +3093,7 @@
         <v>2</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>0</v>
@@ -2931,17 +3112,17 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C3" s="40">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="D3" s="40">
+        <v>1E-3</v>
+      </c>
+      <c r="E3" s="40">
         <v>1E-3</v>
       </c>
       <c r="F3" s="14">
-        <v>0.182</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>5</v>
@@ -2962,7 +3143,7 @@
         <v>1E-3</v>
       </c>
       <c r="N3" s="14">
-        <v>0.04</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>5</v>
@@ -2985,49 +3166,49 @@
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
-        <v>3.7229999999999999E-2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.34359000000000001</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.23951</v>
+      <c r="C4" s="40">
+        <v>3.6150000000000002E-2</v>
+      </c>
+      <c r="D4" s="40">
+        <v>0.34954000000000002</v>
+      </c>
+      <c r="E4" s="40">
+        <v>0.23233999999999999</v>
       </c>
       <c r="F4" s="5">
-        <v>4.3380000000000002E-2</v>
+        <v>4.249E-2</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="5">
-        <v>0.30521999999999999</v>
+        <v>0.35147</v>
       </c>
       <c r="K4" s="5">
-        <v>0.28845999999999999</v>
+        <v>0.33309</v>
       </c>
       <c r="L4" s="5">
-        <v>0.41303000000000001</v>
+        <v>0.44905</v>
       </c>
       <c r="M4" s="5">
-        <v>0.17415</v>
+        <v>0.17451</v>
       </c>
       <c r="N4" s="14">
-        <v>9.6310000000000007E-2</v>
+        <v>6.9320000000000007E-2</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="R4" s="5">
-        <v>3.9750000000000001E-2</v>
+        <v>0.10339</v>
       </c>
       <c r="S4" s="5">
-        <v>0.17221</v>
+        <v>0.17963999999999999</v>
       </c>
       <c r="T4" s="5">
-        <v>9.7350000000000006E-2</v>
+        <v>9.9510000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3037,17 +3218,17 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.14099999999999999</v>
+      <c r="C5" s="40">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="D5" s="40">
+        <v>1E-3</v>
+      </c>
+      <c r="E5" s="40">
+        <v>0.156</v>
       </c>
       <c r="F5" s="14">
-        <v>0.17</v>
+        <v>0.183</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
@@ -3056,19 +3237,19 @@
         <v>3</v>
       </c>
       <c r="J5" s="5">
-        <v>0.20699999999999999</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K5" s="5">
-        <v>8.4000000000000005E-2</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="L5" s="5">
-        <v>4.4999999999999998E-2</v>
+        <v>0.104</v>
       </c>
       <c r="M5" s="5">
-        <v>0.75600000000000001</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="N5" s="14">
-        <v>0.55400000000000005</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>6</v>
@@ -3091,71 +3272,71 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
-        <v>3.7042029999999997E-2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>52.05048</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2.1412749999999998</v>
+      <c r="C6" s="40">
+        <v>2.314739E-2</v>
+      </c>
+      <c r="D6" s="40">
+        <v>51.698129999999999</v>
+      </c>
+      <c r="E6" s="40">
+        <v>1.9451799999999999</v>
       </c>
       <c r="F6" s="5">
-        <v>2.0389930000000001</v>
+        <v>1.8904909999999999</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="5">
-        <v>1.5398210000000001</v>
+        <v>1.223079</v>
       </c>
       <c r="K6" s="5">
-        <v>3.2716630000000002</v>
+        <v>1.7103440000000001</v>
       </c>
       <c r="L6" s="5">
-        <v>3.4585859999999999</v>
+        <v>2.3524919999999998</v>
       </c>
       <c r="M6" s="5">
-        <v>0.26547270000000001</v>
+        <v>0.16178439999999999</v>
       </c>
       <c r="N6" s="5">
-        <v>0.7612833</v>
+        <v>0.4996159</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="R6" s="5">
-        <v>25.059280000000001</v>
+        <v>19.147500000000001</v>
       </c>
       <c r="S6" s="5">
-        <v>26.487749999999998</v>
+        <v>27.740739999999999</v>
       </c>
       <c r="T6" s="5">
-        <v>15.04692</v>
+        <v>14.423069999999999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="J8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>5</v>
@@ -3164,7 +3345,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="5">
-        <v>0.189</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="K9" s="5">
         <v>1E-3</v>
@@ -3173,13 +3354,13 @@
         <v>1E-3</v>
       </c>
       <c r="R9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -3189,27 +3370,27 @@
       <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4.7E-2</v>
+      <c r="C10" s="40">
+        <v>2E-3</v>
+      </c>
+      <c r="D10" s="40">
+        <v>1E-3</v>
+      </c>
+      <c r="E10" s="40">
+        <v>0.05</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J10" s="5">
-        <v>2.6929999999999999E-2</v>
+        <v>3.286E-2</v>
       </c>
       <c r="K10" s="5">
-        <v>0.40018999999999999</v>
+        <v>0.45228000000000002</v>
       </c>
       <c r="L10" s="5">
-        <v>0.37597000000000003</v>
+        <v>0.40039000000000002</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>5</v>
@@ -3224,7 +3405,7 @@
         <v>1E-3</v>
       </c>
       <c r="T10" s="5">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -3232,14 +3413,14 @@
       <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5">
-        <v>0.22550000000000001</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.23554</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.11285000000000001</v>
+      <c r="C11" s="40">
+        <v>0.21437999999999999</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0.23074</v>
+      </c>
+      <c r="E11" s="40">
+        <v>0.11018</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>6</v>
@@ -3248,26 +3429,26 @@
         <v>3</v>
       </c>
       <c r="J11" s="5">
-        <v>0.501</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="K11" s="5">
-        <v>0.245</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="L11" s="5">
-        <v>0.06</v>
+        <v>0.115</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="8" t="s">
         <v>4</v>
       </c>
       <c r="R11" s="5">
-        <v>8.5290000000000005E-2</v>
+        <v>8.7739999999999999E-2</v>
       </c>
       <c r="S11" s="5">
-        <v>0.20982000000000001</v>
+        <v>0.21088000000000001</v>
       </c>
       <c r="T11" s="5">
-        <v>2.6880000000000001E-2</v>
+        <v>2.7230000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -3277,27 +3458,27 @@
       <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="5">
-        <v>0.121</v>
-      </c>
-      <c r="D12" s="5">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.91800000000000004</v>
+      <c r="C12" s="40">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D12" s="40">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E12" s="40">
+        <v>0.90100000000000002</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="5">
-        <v>0.49610359999999998</v>
+        <v>1.2175050000000001</v>
       </c>
       <c r="K12" s="5">
-        <v>1.410866</v>
+        <v>0.2394821</v>
       </c>
       <c r="L12" s="5">
-        <v>3.5674480000000002</v>
+        <v>2.5566819999999999</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>6</v>
@@ -3309,10 +3490,10 @@
         <v>1E-3</v>
       </c>
       <c r="S12" s="5">
-        <v>2.9000000000000001E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="T12" s="5">
-        <v>6.5000000000000002E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -3320,43 +3501,43 @@
       <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5">
-        <v>2.4792350000000001</v>
-      </c>
-      <c r="D13" s="5">
-        <v>3.621429</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1.387363E-2</v>
+      <c r="C13" s="40">
+        <v>2.2650649999999999</v>
+      </c>
+      <c r="D13" s="40">
+        <v>3.2747989999999998</v>
+      </c>
+      <c r="E13" s="40">
+        <v>1.02609E-2</v>
       </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R13" s="5">
-        <v>30.347100000000001</v>
+        <v>28.550940000000001</v>
       </c>
       <c r="S13" s="5">
-        <v>5.2194330000000004</v>
+        <v>6.311706</v>
       </c>
       <c r="T13" s="5">
-        <v>4.0408119999999998</v>
+        <v>3.3831709999999999</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="J14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>1</v>
@@ -3365,7 +3546,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>0</v>
@@ -3386,16 +3567,19 @@
         <v>1E-3</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" s="18" t="s">
         <v>0</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -3409,23 +3593,23 @@
         <v>1E-3</v>
       </c>
       <c r="D16" s="19">
-        <v>7.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E16" s="19">
-        <v>0.01</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
         <v>4</v>
       </c>
       <c r="J16" s="5">
-        <v>0.20022000000000001</v>
+        <v>0.20732999999999999</v>
       </c>
       <c r="K16" s="5">
-        <v>0.37385000000000002</v>
+        <v>0.41278999999999999</v>
       </c>
       <c r="L16" s="5">
-        <v>0.51092000000000004</v>
+        <v>0.53918999999999995</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>3</v>
@@ -3439,22 +3623,25 @@
       <c r="S16" s="5">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" s="14">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="19">
-        <v>0.34359000000000001</v>
+        <v>0.34954000000000002</v>
       </c>
       <c r="C17" s="19">
-        <v>0.24163999999999999</v>
+        <v>0.23449</v>
       </c>
       <c r="D17" s="19">
-        <v>4.4920000000000002E-2</v>
+        <v>4.394E-2</v>
       </c>
       <c r="E17" s="19">
-        <v>3.424E-2</v>
+        <v>3.3309999999999999E-2</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>6</v>
@@ -3463,55 +3650,58 @@
         <v>3</v>
       </c>
       <c r="J17" s="5">
-        <v>8.9999999999999993E-3</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="K17" s="5">
-        <v>0.21199999999999999</v>
+        <v>0.434</v>
       </c>
       <c r="L17" s="5">
-        <v>0.43</v>
+        <v>0.251</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="Q17" s="5">
-        <v>4.0039999999999999E-2</v>
+        <v>0.17963999999999999</v>
       </c>
       <c r="R17" s="14">
-        <v>0.17221</v>
+        <v>9.9510000000000001E-2</v>
       </c>
       <c r="S17" s="14">
-        <v>9.7350000000000006E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>0.20179</v>
+      </c>
+      <c r="T17" s="5">
+        <v>9.7589999999999996E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="H18" s="10"/>
       <c r="I18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="5">
-        <v>6.2977869999999996</v>
+        <v>4.301812</v>
       </c>
       <c r="K18" s="5">
-        <v>1.47037</v>
+        <v>0.56234390000000001</v>
       </c>
       <c r="L18" s="5">
-        <v>0.59589340000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>1.2427630000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="B20" s="15"/>
       <c r="J20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+    </row>
+    <row r="21" spans="1:20">
       <c r="B21" s="20"/>
       <c r="H21" s="7" t="s">
         <v>5</v>
@@ -3526,26 +3716,26 @@
         <v>1E-3</v>
       </c>
       <c r="L21" s="5">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="B22" s="20"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
         <v>4</v>
       </c>
       <c r="J22" s="5">
-        <v>0.18032000000000001</v>
+        <v>0.18015999999999999</v>
       </c>
       <c r="K22" s="5">
-        <v>0.18804000000000001</v>
+        <v>0.18132999999999999</v>
       </c>
       <c r="L22" s="5">
-        <v>5.2089999999999997E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>5.7070000000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="B23" s="20"/>
       <c r="H23" s="9" t="s">
         <v>6</v>
@@ -3557,38 +3747,38 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="K23" s="5">
-        <v>0.52100000000000002</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="L23" s="5">
-        <v>0.59399999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="B24" s="20"/>
       <c r="H24" s="10"/>
       <c r="I24" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="5">
-        <v>2.9310409999999999E-2</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="K24" s="5">
-        <v>0.43681009999999998</v>
+        <v>0.22781580000000001</v>
       </c>
       <c r="L24" s="5">
-        <v>0.29608109999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>0.22337660000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="B25" s="20"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:20">
       <c r="B26" s="20"/>
       <c r="H26" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>1</v>
@@ -3597,13 +3787,13 @@
         <v>2</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:20">
       <c r="B27" s="20"/>
       <c r="H27" s="4" t="s">
         <v>3</v>
@@ -3621,38 +3811,38 @@
         <v>1E-3</v>
       </c>
       <c r="M27" s="19">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="B28" s="20"/>
       <c r="H28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I28" s="19">
-        <v>0.28845999999999999</v>
+        <v>0.33309</v>
       </c>
       <c r="J28" s="19">
-        <v>0.12457</v>
+        <v>0.11595999999999999</v>
       </c>
       <c r="K28" s="19">
-        <v>0.17319000000000001</v>
+        <v>0.17451</v>
       </c>
       <c r="L28" s="19">
-        <v>7.6509999999999995E-2</v>
+        <v>5.6320000000000002E-2</v>
       </c>
       <c r="M28" s="19">
-        <v>0.16839999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>1.8380000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="B29" s="20"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:20">
       <c r="B30" s="20"/>
       <c r="H30" s="17"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:20">
       <c r="B31" s="15"/>
     </row>
   </sheetData>
@@ -3670,8 +3860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3685,60 +3875,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="28"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="F2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3746,22 +3936,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>42</v>
-      </c>
       <c r="G4" s="19" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3769,45 +3959,45 @@
         <v>2</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17">
       <c r="A6" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J6" s="22"/>
     </row>
@@ -3816,45 +4006,45 @@
         <v>0</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="25" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B8" s="26">
         <v>0.31419999999999998</v>
       </c>
       <c r="C8" s="26">
-        <v>0.33561999999999997</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="D8" s="26">
         <v>0.28691</v>
       </c>
       <c r="E8" s="26">
-        <v>0.32042999999999999</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="F8" s="26">
         <v>0.46100000000000002</v>
       </c>
       <c r="G8" s="26">
-        <v>0.42499999999999999</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
   </sheetData>
